--- a/imnisen/evidence.xlsx
+++ b/imnisen/evidence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisen/Projects/gon-evidence/imnisen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CA3FD-F656-2A49-9296-25B396AE709B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF54B1-4C04-6445-94C3-C19E738791B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1580" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="47">
   <si>
     <t>TxHash</t>
   </si>
@@ -143,6 +143,48 @@
   </si>
   <si>
     <t>uptick1ah6lsfdxk89gtksld72cy8ywf3gypl7pllkt6r</t>
+  </si>
+  <si>
+    <t>91AB98EAF22BB61EE3C1600AAE251B3904A84385E6D3042B1009FA5031E5AE1A</t>
+  </si>
+  <si>
+    <t>gonft</t>
+  </si>
+  <si>
+    <t>74698A8CB76EE7986A545C41C6EDC5E016EFBC2917BBC734FE265DDB81E9C018</t>
+  </si>
+  <si>
+    <t>goo1</t>
+  </si>
+  <si>
+    <t>10DEB33458428C54B79621187E777161D796CFA4B7E0BBDE5A6ED2ECA158D722</t>
+  </si>
+  <si>
+    <t>goo2</t>
+  </si>
+  <si>
+    <t>3A826E2270772D1E44A261A9870B8DAF635FE0F2A8C8DB8E951CA5F7C45D24D3</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>56667F6D404B662A249C893CE3413733C0767DC817141DF73E54A99A02B851B4</t>
+  </si>
+  <si>
+    <t>ibc/CCCCE645CF3E2A443D8B8ADC4B125AD1FFCEA19D79978D746989B8A32ADCB52A</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>A8A83B3CEAA2509129411241ABFC777F4E559F1D766F785516D792B972EC3F74</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/gonft</t>
+  </si>
+  <si>
+    <t>A5BBED714957C24BEEA174F3AD313B30F7C35652B5907778AB857EC2713D71D4</t>
   </si>
 </sst>
 </file>
@@ -539,7 +581,7 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1049,9 +1091,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1072,6 +1116,14 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1316,9 +1368,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1348,6 +1402,28 @@
         <v>16</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1358,9 +1434,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1397,6 +1475,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1407,9 +1499,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1446,6 +1540,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1456,9 +1564,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1495,6 +1605,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1505,9 +1629,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1545,6 +1671,20 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/imnisen/evidence.xlsx
+++ b/imnisen/evidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisen/Projects/gon-evidence/imnisen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BF54B1-4C04-6445-94C3-C19E738791B9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC503985-1C53-AA47-AE12-95DC5D36A7F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5180" yWindow="22100" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
   <si>
     <t>TxHash</t>
   </si>
@@ -79,24 +79,6 @@
     <t>nft id</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -181,10 +163,10 @@
     <t>A8A83B3CEAA2509129411241ABFC777F4E559F1D766F785516D792B972EC3F74</t>
   </si>
   <si>
-    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/gonft</t>
-  </si>
-  <si>
     <t>A5BBED714957C24BEEA174F3AD313B30F7C35652B5907778AB857EC2713D71D4</t>
+  </si>
+  <si>
+    <t>stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh</t>
   </si>
 </sst>
 </file>
@@ -599,54 +581,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1091,10 +1073,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1110,20 +1092,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>34</v>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1368,10 +1342,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1391,37 +1365,26 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1434,10 +1397,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1461,32 +1424,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1499,10 +1448,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1526,32 +1475,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>43</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1564,10 +1499,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1591,32 +1526,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1629,10 +1550,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1657,32 +1578,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>43</v>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/imnisen/evidence.xlsx
+++ b/imnisen/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisen/Projects/gon-evidence/imnisen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC503985-1C53-AA47-AE12-95DC5D36A7F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCDD46C-256B-2341-9A1E-673CA27FD911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="22100" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3760" yWindow="760" windowWidth="21140" windowHeight="18880" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>TxHash</t>
   </si>
@@ -58,27 +58,12 @@
     <t>ChainID</t>
   </si>
   <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
-  </si>
-  <si>
     <t>ClassID</t>
   </si>
   <si>
     <t>NFTID</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
     <t>TeamName</t>
   </si>
   <si>
@@ -167,17 +152,217 @@
   </si>
   <si>
     <t>stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh</t>
+  </si>
+  <si>
+    <t>ibc/8039EFE8B5788B7DBDC45C50A5DD3596E1AC3C110C48C6CAE1AAEFE2BC7C3B72</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/7AA2677F46B13CE1FB8265F9F72154AF7D25C09DB57273D7BAE3D90B8CBCB187</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/6D69D05B0CE1F438274AE1347693888B094D3BA3F720F5248FB647C0543CDB36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/EE30671F891CBD16FBA0FDF5225C8B8EA098B365D3BA36BC7C4B3919102AF47B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/FA403E455D8AB7EA81EB88EE2CDE1922272E7A6A5C62A1A34D47C23A25E32EAB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>goo12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ibc/46D45631AFEB8CEE762DC9CCE63A4D1038E6AE2540EA12C7F07DAEA5831143DD</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>F8FEE4DEC7E716AD4A4FBE3AC924FE2E4B1260885D6A9F563631263DDF02B0E0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>494FD47D29E59C54922DCF6A73C141D29EE5C4E0175CA107A52BA2ECACD62DAA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>067BE23F26C7F5AD6F8ECCE9ADF47962BB63BFEB461D5AB82C1C9827F2ACFF58</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A45B33CEBD405FCA7ECDAAD8E8EF6CA900A6373D10DF427EA66C2A5EA13DEFC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D109D11E20A0548714F85C06C228B1B7C164C49A71B8429C51C34541E988907</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2E5037373663FDFEDEE5DD64D886BF727E4301B15CA46012DF97978C1B62CA1D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>375E8141533374BC76E81617E849FB8CB5440782AB46E7E1B654ADF6704838CC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD491587436B9A9E5F82F9F1DC5920FCB6FA2B44D6508565044F78233EC8384B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1EE0EF98D28AA3C86BD0591C1232D3BB2592C7B2C08194E6DD509D073A5E9975</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12BE3761FF9B20CE437A0D767B95D1AA7ED9EB0072E7CFB544B9EAD3FE0B143D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2131BBB292D8148875035B831AB708A07DD8836F0776B7A350357B8AC82906CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14CEFCC66B26027D40346A09EF28D94EC9A5EE7004EFA4A7CBCB72BC4525DAE8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13EE86BF4E11E8124ABB9200C4C23FAF6B16A26B3FCD972813DBD0BFB82AA712</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0040632C7EFB636A870C770185D75354EF4B3D20ED83F246B0A6A7624554A5D7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6723E944C475182DE91AF10460C21E822FA216F3D444EBDC43A126C057800230</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>052D50C6347C302019A6AB36658F379AD42D7BF5888D7D184175F1AFBFCDBB58</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12ABB16B592C63D86AA824A0E3477F2BA7EC0C0667F86B13934007DA57158475</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3E4F8B3C7628141B4016CD34A072744B6EEEF4DD9E24004F68AE634E0E20529A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27F89AB4DDC18147A10FCAC77CC7BC06BB427C82995DA6F65B2C977106B317C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>42E9C86E4371755F50428D6CCBBD506B21474614A646109D4DFE9A2A9FA77ECF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>807EBB34C86D57721FFEE6F0079731483C19DA82D56CF89D0D96DAFEDB712588</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0426B37F53C36AC7F77C07E0F11B68749EEA04332C41428A8860296BBF567A8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EA0478D592518C67F6C177F32B972A827E9FFF5A1DE62EB20B70434C5012E20B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9F79E5E8E713F69AA61753971957EB9205A000C71264EAEC4AE08CB1A781A75C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13694C3109C7C9504F97427554701A269010B0D7CACDA1CB7F5B9F6D04EE481D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6BB9EFDB010121D9C3FF9C0C83681297FAE9423ADC2982B36C8373A8342599EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCD8839142FCBFBE485426F8C1E5DFBA45E505DA84A22B724FCDF1CD44065DDA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4FB69EF4EAE78C733BED16F84B94E0B09FB2404D33AB248025EB405BF3B59C81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8DE9AF15AAD23C8CBD23AB42AC132AFC46FC96C7F9EEACBF5E9F67A69E553D89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6AE3FB0270023A267B9BA6F1AD48EE4B5712C3F682B79F25416499DFB54A3CEE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFC16965DF2B66F0397E188C36584AD83A80893BCBF0C8AECC72B8244A016032</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>92A65456905AB9FB33440F735A9EC57373B3D4C151A101FC1CD50FFB4DA183C2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>49C50051A2C822BA34A0BD9D3FB3B16C7125BECB24031357A4283A45338CD97D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>277067CA0EDC0B199B653F485FAB033406EB1ED27C2D1F2CE98F32CB54E785EE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>E7A6CE81CB8A47DCD00479F3650C840F0F98ED6CF2F29816F17E2213AF1FF434</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>672F35EB3FF4497A46B57130AFFACE5D0C3EEAB9AE0B853E68E0C0E8EDE3B506</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -186,6 +371,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -248,17 +440,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,71 +761,72 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -643,31 +838,34 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -679,31 +877,34 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -715,31 +916,34 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -751,31 +955,34 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -785,17 +992,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,27 +1012,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -833,17 +1055,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,27 +1075,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+        <v>57</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -881,17 +1118,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -899,27 +1138,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -929,17 +1181,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -947,27 +1201,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+        <v>65</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -977,17 +1244,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,27 +1264,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+        <v>69</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1025,17 +1307,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,27 +1327,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+        <v>73</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1079,28 +1376,29 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1110,17 +1408,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1128,27 +1428,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+        <v>77</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1158,17 +1487,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,27 +1507,56 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-  </sheetData>
+        <v>83</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1210,27 +1570,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="16.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1244,27 +1605,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1278,27 +1640,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1312,27 +1675,28 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="17.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1348,46 +1712,47 @@
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1403,42 +1768,43 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1454,42 +1820,43 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1505,42 +1872,43 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1552,47 +1920,48 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="17.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1604,31 +1973,34 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1640,31 +2012,34 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/imnisen/evidence.xlsx
+++ b/imnisen/evidence.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dd/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nisen/Projects/gon-evidence/imnisen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCDD46C-256B-2341-9A1E-673CA27FD911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C47F35-7890-0B47-B2D1-F90F868CE6BE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="760" windowWidth="21140" windowHeight="18880" firstSheet="11" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" firstSheet="11" activeTab="25" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,18 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="95">
   <si>
     <t>TxHash</t>
   </si>
   <si>
-    <t>The first Interchain NFT-Transfer TxHash</t>
-  </si>
-  <si>
-    <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
     <t>ChainID</t>
   </si>
   <si>
@@ -352,17 +347,47 @@
   <si>
     <t>672F35EB3FF4497A46B57130AFFACE5D0C3EEAB9AE0B853E68E0C0E8EDE3B506</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4905EC18CDBC95BBA402A7AF7BBD64D4BC1F80467C701012A6750BA68C04FD40</t>
+  </si>
+  <si>
+    <t>DD86B4D2A8E3018048BE17C40EEF25A6FFDDD472D869DC9A9A7CD894C7318B48</t>
+  </si>
+  <si>
+    <t>3094E4C56E529DFBF2D10EFD28F105220FD236C00B90E0729FE0E1DAE75BC496</t>
+  </si>
+  <si>
+    <t>03A163A6E87FF0B54683494325DDAD5BBBA9AFFD397E7483D088A5CAC97E0500</t>
+  </si>
+  <si>
+    <t>729F5A64C0B98418AF5C87039BE312E93167C85B0B99BBF333D3AB18E1F0DBC0</t>
+  </si>
+  <si>
+    <t>9B93D60B31973FD403BC3D33FEA6AF14A38151E743F1E39D18E893D75CD4BB06</t>
+  </si>
+  <si>
+    <t>FE67A10C96146462D3C23D7524E265EA1DF100E6E9A9D377AAB07EE5F35C1E9E</t>
+  </si>
+  <si>
+    <t>64AFE499D2024E031BCD718FDFE34EBB7513D98D9EF65A3A8DF4ED62F2FF94A4</t>
+  </si>
+  <si>
+    <t>CB86DDF4D614CF603EB0D4E3166CF5170A99ED18BCC2214D980130341C25B590</t>
+  </si>
+  <si>
+    <t>06D11529799D19BCC6F0A53ECB346F9BC648EE4039297C0CEEE09BD19414FE3F</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -374,7 +399,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -452,7 +477,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -761,7 +786,7 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
@@ -773,56 +798,56 @@
     <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -842,26 +867,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -881,21 +906,60 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -909,212 +973,236 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1124,631 +1212,604 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808E4C6C-FFEB-4849-A8A2-C05E71B7BCE4}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1768,39 +1829,39 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1820,39 +1881,39 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1872,39 +1933,39 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1924,7 +1985,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -1932,32 +1993,32 @@
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" customHeight="1">
+    <row r="1" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1977,21 +2038,60 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -2003,43 +2103,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>